--- a/Maven_Automation/TestData/Driver.xlsx
+++ b/Maven_Automation/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,9 +76,6 @@
     <t>DWHomePage</t>
   </si>
   <si>
-    <t>HomePage</t>
-  </si>
-  <si>
     <t>DWWorkspace</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Team;</t>
+  </si>
+  <si>
+    <t>NewsArticle</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +503,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,35 +523,35 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
